--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r103_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r103_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +489,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="2">
+      <c r="C14" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +582,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -708,10 +720,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -755,28 +767,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="2">
+      <c r="C22" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -801,28 +813,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -939,10 +951,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -986,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1032,28 +1044,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1199,10 +1211,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1246,28 +1258,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1292,28 +1304,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1459,10 +1471,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1506,28 +1518,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1552,28 +1564,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1777,10 +1789,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1824,28 +1836,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1870,28 +1882,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1979,10 +1991,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2026,28 +2038,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2072,28 +2084,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2210,10 +2222,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2257,28 +2269,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2303,28 +2315,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2412,10 +2424,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2459,28 +2471,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2505,28 +2517,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2643,10 +2655,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2690,28 +2702,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2736,28 +2748,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2845,10 +2857,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2892,28 +2904,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2938,28 +2950,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3047,10 +3059,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3094,28 +3106,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="2">
+      <c r="C103" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3140,28 +3152,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3307,10 +3319,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3354,28 +3366,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3400,28 +3412,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3538,10 +3550,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3585,28 +3597,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3631,28 +3643,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3740,10 +3752,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3787,28 +3799,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3833,28 +3845,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3971,10 +3983,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4018,28 +4030,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4064,28 +4076,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4173,10 +4185,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4220,28 +4232,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4266,28 +4278,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4375,10 +4387,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4422,28 +4434,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4468,28 +4480,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4577,10 +4589,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4624,28 +4636,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4670,28 +4682,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4808,10 +4820,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4855,28 +4867,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4901,28 +4913,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5010,10 +5022,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5057,28 +5069,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5103,28 +5115,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5241,10 +5253,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5288,28 +5300,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5334,28 +5346,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5472,10 +5484,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5519,28 +5531,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5565,28 +5577,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5674,10 +5686,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5721,28 +5733,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5767,28 +5779,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5876,10 +5888,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5923,28 +5935,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5969,28 +5981,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6078,10 +6090,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6125,28 +6137,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6171,28 +6183,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6309,10 +6321,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6356,28 +6368,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6402,28 +6414,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6482,10 +6494,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6529,28 +6541,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6575,28 +6587,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6655,10 +6667,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6702,28 +6714,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6748,28 +6760,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6857,10 +6869,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6904,28 +6916,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6950,28 +6962,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7059,10 +7071,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7106,28 +7118,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7152,28 +7164,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7261,10 +7273,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7308,28 +7320,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7354,28 +7366,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7434,10 +7446,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7481,28 +7493,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7527,28 +7539,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7636,10 +7648,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7683,28 +7695,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7729,28 +7741,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7838,10 +7850,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7885,28 +7897,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7931,28 +7943,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8011,10 +8023,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="2" t="s">
+      <c r="J273" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8058,28 +8070,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="2">
+      <c r="A275" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="2">
+      <c r="C275" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8104,28 +8116,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="2">
+      <c r="C277" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="2">
+      <c r="D277" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="2">
+      <c r="I277" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8213,10 +8225,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="2" t="s">
+      <c r="J280" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8260,28 +8272,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="2">
+      <c r="A282" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="2">
+      <c r="C282" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8306,28 +8318,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="2">
+      <c r="C284" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="2">
+      <c r="D284" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="2">
+      <c r="I284" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8386,10 +8398,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8433,28 +8445,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="2">
+      <c r="A288" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="2">
+      <c r="C288" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8479,28 +8491,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="2">
+      <c r="C290" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="2">
+      <c r="D290" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="2">
+      <c r="I290" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8559,10 +8571,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="2" t="s">
+      <c r="J292" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8606,28 +8618,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="2">
+      <c r="A294" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="2">
+      <c r="C294" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8652,28 +8664,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="2">
+      <c r="C296" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="2">
+      <c r="D296" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="2">
+      <c r="I296" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8732,10 +8744,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="2" t="s">
+      <c r="J298" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8779,28 +8791,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="2">
+      <c r="A300" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="2">
+      <c r="C300" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8825,28 +8837,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="2">
+      <c r="C302" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="2">
+      <c r="D302" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="2">
+      <c r="I302" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8905,10 +8917,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="2" t="s">
+      <c r="J304" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8952,28 +8964,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="2">
+      <c r="A306" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="2">
+      <c r="C306" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8998,28 +9010,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="2">
+      <c r="C308" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="2">
+      <c r="D308" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="2">
+      <c r="I308" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9078,10 +9090,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="2" t="s">
+      <c r="J310" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9125,28 +9137,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="2">
+      <c r="A312" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="2">
+      <c r="C312" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9171,28 +9183,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="2">
+      <c r="C314" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="2">
+      <c r="D314" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="2">
+      <c r="I314" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9251,10 +9263,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="2" t="s">
+      <c r="J316" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
